--- a/data/Game/Tactics.xlsx
+++ b/data/Game/Tactics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lequo\Documents\_Lang_Vietnamese\Lang\VN\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E688C7E-C9AC-4EB5-97FD-BB0F6651B475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2353FFE1-37D8-47C6-9D84-259CE871EF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="3105" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tactics" sheetId="1" r:id="rId1"/>
@@ -196,6 +196,9 @@
     <t>Pháp sư</t>
   </si>
   <si>
+    <t>Toàn diện</t>
+  </si>
+  <si>
     <t>Triệu hồi sư</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t>Hiệp sĩ</t>
-  </si>
-  <si>
-    <t>Toàn diện</t>
   </si>
 </sst>
 </file>
@@ -573,15 +573,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -624,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -641,7 +641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -658,7 +658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -675,7 +675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -709,7 +709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -717,7 +717,7 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -726,7 +726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -734,7 +734,7 @@
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -743,7 +743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -751,7 +751,7 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -760,7 +760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -768,7 +768,7 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
@@ -777,7 +777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -794,7 +794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -802,7 +802,7 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -811,7 +811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -819,7 +819,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
